--- a/main_data/Копiйка products_list.xlsx
+++ b/main_data/Копiйка products_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aktiz\PycharmProjects\КЗ\main_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BDEB95-5B4B-4DFC-94D4-A0B2ACF8A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D1D05-0208-46C3-933D-BD149F4ABBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8806CB1C-CA7B-421A-99DB-310831829B7E}"/>
+    <workbookView xWindow="-23685" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{8806CB1C-CA7B-421A-99DB-310831829B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Рис</t>
   </si>
   <si>
-    <t>Мука</t>
-  </si>
-  <si>
     <t>Сир</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Кавун</t>
+  </si>
+  <si>
+    <t>Торт</t>
   </si>
 </sst>
 </file>
@@ -426,17 +426,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>42</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>124</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>89</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>80</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>170</v>
